--- a/distribuicao condicional produtos.xlsx
+++ b/distribuicao condicional produtos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Github\POF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\POF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC140060-D7ED-49BD-AF59-64126E1A8E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{766F56DD-5789-4E6A-9C5E-5B8179CC9368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-17355" yWindow="4515" windowWidth="14625" windowHeight="8100"/>
   </bookViews>
   <sheets>
     <sheet name="distribuicao condicional produt" sheetId="1" r:id="rId1"/>
@@ -82,13 +82,13 @@
     <t>Verduras</t>
   </si>
   <si>
+    <t>Outros</t>
+  </si>
+  <si>
+    <t>Grupo</t>
+  </si>
+  <si>
     <t>Valor</t>
-  </si>
-  <si>
-    <t>Outros</t>
-  </si>
-  <si>
-    <t>Grupo</t>
   </si>
 </sst>
 </file>
@@ -936,16 +936,13 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="40.140625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
         <v>22</v>
-      </c>
-      <c r="C1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
@@ -953,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>260379.07</v>
+        <v>143829.71</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
@@ -961,7 +958,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>595399.37</v>
+        <v>154889.18</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
@@ -969,7 +966,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>147158.62</v>
+        <v>30028.87</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
@@ -977,7 +974,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>119773.03</v>
+        <v>39043.64</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
@@ -985,7 +982,7 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>80990.509999999995</v>
+        <v>17732.86</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
@@ -993,7 +990,7 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>133620.53</v>
+        <v>28217.29</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
@@ -1001,7 +998,7 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>255505.7</v>
+        <v>62428.41</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
@@ -1009,7 +1006,7 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>153407</v>
+        <v>34355.230000000003</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
@@ -1017,7 +1014,7 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>13254.29</v>
+        <v>2668.48</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
@@ -1025,7 +1022,7 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>14092.41</v>
+        <v>4858.71</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
@@ -1033,7 +1030,7 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>14905.26</v>
+        <v>3095.97</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
@@ -1041,7 +1038,7 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>117955.58</v>
+        <v>30931.46</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
@@ -1049,7 +1046,7 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>43632.79</v>
+        <v>9322.61</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
@@ -1057,7 +1054,7 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>377765.87</v>
+        <v>87530.63</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
@@ -1065,7 +1062,7 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>53840.91</v>
+        <v>21516.07</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
@@ -1073,7 +1070,7 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>626.25</v>
+        <v>290.49</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
@@ -1081,7 +1078,7 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>73246.899999999994</v>
+        <v>16102.26</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
@@ -1089,7 +1086,7 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>871.47</v>
+        <v>340.41</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
@@ -1097,7 +1094,7 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1256.8499999999999</v>
+        <v>302.67</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
@@ -1105,15 +1102,15 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>41796.49</v>
+        <v>8976.2800000000007</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22">
-        <v>3593418.24</v>
+        <v>816135.33</v>
       </c>
     </row>
   </sheetData>
